--- a/biology/Botanique/Reseda_minoica/Reseda_minoica.xlsx
+++ b/biology/Botanique/Reseda_minoica/Reseda_minoica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reseda minoica est une espèce de plantes herbacées de la famille des Resedaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxinomie et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reseda minoica a été pour la première fois décrite en 2013 par deux chercheurs de l'Université Pablo de Olavide à Séville en Espagne, Santiago Martín-Bravo et Pedro Jiménez-Mejías. Le type a été récolté à Mersin, au sud de la Turquie, le 28 avril 2010[2].
-Elle doit son nom à la civilisation minoenne, qui s'est épanouie pendant l'âge du bronze en Crête et dont l'influence culturelle s'est étendue à Chypre, en Anatolie et le long de la côte du Levant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reseda minoica a été pour la première fois décrite en 2013 par deux chercheurs de l'Université Pablo de Olavide à Séville en Espagne, Santiago Martín-Bravo et Pedro Jiménez-Mejías. Le type a été récolté à Mersin, au sud de la Turquie, le 28 avril 2010.
+Elle doit son nom à la civilisation minoenne, qui s'est épanouie pendant l'âge du bronze en Crête et dont l'influence culturelle s'est étendue à Chypre, en Anatolie et le long de la côte du Levant.
 </t>
         </is>
       </c>
